--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET\backbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951846F3-3E63-41D9-AB13-2E9EA44922A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA10F17C-A467-47DA-9E2E-56F06F592E28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,13 +110,7 @@
 1. Field to search the computer name along with "Find by name" button.</t>
   </si>
   <si>
-    <t>Validate that "Add a new computer" button is displaying on the hompage of application.</t>
-  </si>
-  <si>
     <t>Validate that total number of record which is displaying on top of the page is matching with total number of records displaying in pagination button</t>
-  </si>
-  <si>
-    <t>Validate that member can search the computer name by entering the computer name (Alphabatical, String, special char etc)</t>
   </si>
   <si>
     <t>Validate that member can reset the search by clicking on X button from search field also validate that search table displays all the record</t>
@@ -140,9 +134,6 @@
 4. Company name</t>
   </si>
   <si>
-    <t>Validate that application is displaying the error message for mandatory infomration if member tries to create a computer without entering any information</t>
-  </si>
-  <si>
     <t>Validate that total number of record is increased by 1 after adding the computer name</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
   </si>
   <si>
     <t>Application should display the all the fields mentioned in the steps</t>
-  </si>
-  <si>
-    <t>Access the application and validate that search field and "Find by name" button is displaying correclty</t>
   </si>
   <si>
     <t>Application should display the text field for search and "Find by name" button to search the records</t>
@@ -326,9 +314,6 @@
     <t>Application should display the Edit computer screen</t>
   </si>
   <si>
-    <t>Validae that application populates all the existing information</t>
-  </si>
-  <si>
     <t>Application should display all the existing information</t>
   </si>
   <si>
@@ -392,19 +377,34 @@
     <t>Comment for selecting this as regression</t>
   </si>
   <si>
-    <t>Searching the computer name is one of the main functionality which also demonstrat the connection between database, UI functionality etc. hencing proving this functionality we are ensuring that customer can search the record properly.</t>
-  </si>
-  <si>
     <t>by running this case, we can prove that main functionality is working as expected which adding the computer name as this is mandatory field. This TC will also cover DB connection and some UI validation.. So in a way we are proving the happy path journey also proving that any changes to DB is not impacted this main functionality</t>
+  </si>
+  <si>
+    <t>By including this scenario in the regression testing we can ensure that delete functionality is working as expected</t>
+  </si>
+  <si>
+    <t>Access the application and validate that search field and "Find by name" button is displaying correctly</t>
+  </si>
+  <si>
+    <t>Validate that "Add a new computer" button is displaying on the homepage of application.</t>
+  </si>
+  <si>
+    <t>Validate that member can search the computer name by entering the computer name (Alphabetical, String, special char etc)</t>
+  </si>
+  <si>
+    <t>Searching the computer name is one of the main functionality which also demonstrate the connection between database, UI functionality etc. hence proving this functionality we are ensuring that customer can search the record properly.</t>
+  </si>
+  <si>
+    <t>Validate that application is displaying the error message for mandatory information if member tries to create a computer without entering any information</t>
+  </si>
+  <si>
+    <t>Validate that application populates all the existing information</t>
   </si>
   <si>
     <t>By including this scenario in the regression testing we can ensure that:
 1. Member can update the computer information
-2. All the existing information is being pre-populated. This will prove how we are caching the data/retriving the data from DB while prepopulating
+2. All the existing information is being pre-populated. This will prove how we are caching the data/retrieving the data from DB while prepopulating
 3. In other way this case will also prove member can add computer record with all the information</t>
-  </si>
-  <si>
-    <t>By including this scenario in the regression testing we can ensure that delete functionality is working as expected</t>
   </si>
 </sst>
 </file>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F888334-B0F1-436E-9F32-E23C80E442D3}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" activeCellId="1" sqref="E60 E16"/>
+    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>21</v>
@@ -846,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -869,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -898,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -919,19 +919,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -948,19 +948,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -977,22 +977,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>111</v>
@@ -1003,10 +1003,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,19 +1023,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1043,10 +1043,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1054,30 +1054,30 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,22 +1091,22 @@
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1123,19 +1123,19 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,25 +1152,25 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1178,10 +1178,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1198,19 +1198,19 @@
         <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1218,10 +1218,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1262,10 +1262,10 @@
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,19 +1282,19 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1302,10 +1302,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1322,19 +1322,19 @@
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" s="8">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1343,10 +1343,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1355,10 +1355,10 @@
         <v>3</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1375,19 +1375,19 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D39" s="8">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1395,10 +1395,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1406,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,19 +1426,19 @@
         <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1446,10 +1446,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1457,10 +1457,10 @@
         <v>3</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1477,19 +1477,19 @@
         <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="8">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1497,10 +1497,10 @@
         <v>2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1517,19 +1517,19 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D50" s="8">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1537,10 +1537,10 @@
         <v>2</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,25 +1557,25 @@
         <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D53" s="8">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1583,10 +1583,10 @@
         <v>2</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1600,22 +1600,22 @@
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1623,10 +1623,10 @@
         <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1634,10 +1634,10 @@
         <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,25 +1654,25 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D60" s="8">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="H60" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1680,10 +1680,10 @@
         <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -1697,22 +1697,22 @@
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D63" s="8">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1720,10 +1720,10 @@
         <v>2</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="4:6" ht="30" x14ac:dyDescent="0.25">
@@ -1731,10 +1731,10 @@
         <v>3</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
